--- a/full_detailed_aggregated_report_ten_west.xlsx
+++ b/full_detailed_aggregated_report_ten_west.xlsx
@@ -25698,14 +25698,26 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr"/>
-      <c r="B227" t="inlineStr"/>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Daria</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>CRICUT</t>
+        </is>
+      </c>
       <c r="C227" t="inlineStr">
         <is>
           <t>B0BV19KCFW</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Cricut Smart Permanent Vinyl (5.5in</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>0</t>
@@ -25741,7 +25753,11 @@
           <t>$0.00</t>
         </is>
       </c>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
       <c r="M227" t="inlineStr">
         <is>
           <t>$0.00</t>
@@ -25762,8 +25778,16 @@
           <t>$0.00</t>
         </is>
       </c>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>$-2.38</t>
+        </is>
+      </c>
       <c r="S227" t="inlineStr">
         <is>
           <t>0.00%</t>
